--- a/invoice_data.xlsx
+++ b/invoice_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,49 +449,138 @@
           <t>Total Amount</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RUC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Razon Social</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Payment Method</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Op Gravada</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Op Inafecta</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Op Exonerada</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>IGV</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>20221084684</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>20221084684</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>20221084684</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>20265393749</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20265393749</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2588959623</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2002-04-01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1500</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F0543672828</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17/07/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>380.04</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>234255252535</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Redondos S.A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tipos</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>380.04</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>68.41</t>
         </is>
       </c>
     </row>
